--- a/PlanB/CPU_utilization_Experiment/version2_Experiment_style/Experiment3_result/Fixed_Edge4/Experiment3_FixedEdge4_Iperf.xlsx
+++ b/PlanB/CPU_utilization_Experiment/version2_Experiment_style/Experiment3_result/Fixed_Edge4/Experiment3_FixedEdge4_Iperf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\art01\Desktop\NECTEC_work\CPU_Utilization_NECTEC_git\Privacy_SDN_Edge_IoT\PlanB\CPU_utilization_Experiment\version2_Experiment_style\Experiment3_result\Fixed_Edge4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160D60F8-641C-44F0-8FEA-981E53189D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAF713C-B43F-46B8-8453-2B40D3179655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8112" yWindow="864" windowWidth="13788" windowHeight="11088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,16 +221,16 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -1775,16 +1775,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1360715</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>181791</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>94705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>88175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>105592</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>349432</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18505</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2077,7 +2077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
@@ -2088,72 +2088,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2" t="s">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="2"/>
+      <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2189,7 +2189,7 @@
       <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="2">
         <v>-1</v>
       </c>
       <c r="N3" t="s">
@@ -2251,7 +2251,7 @@
       <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="2">
         <v>-1</v>
       </c>
       <c r="N4" t="s">
@@ -2313,7 +2313,7 @@
       <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="2">
         <v>-1</v>
       </c>
       <c r="N5" t="s">
@@ -2375,7 +2375,7 @@
       <c r="K6" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="2">
         <v>-1</v>
       </c>
       <c r="N6" t="s">
@@ -2445,7 +2445,7 @@
       <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="2">
         <v>-1</v>
       </c>
       <c r="N7" t="s">
@@ -2515,7 +2515,7 @@
       <c r="K8" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="2">
         <v>-1</v>
       </c>
       <c r="N8" t="s">
@@ -2585,7 +2585,7 @@
       <c r="K9" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="2">
         <v>-1</v>
       </c>
       <c r="N9" t="s">
@@ -2655,7 +2655,7 @@
       <c r="K10" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="2">
         <v>-1</v>
       </c>
       <c r="N10" t="s">
@@ -2725,7 +2725,7 @@
       <c r="K11" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="2">
         <v>-1</v>
       </c>
       <c r="N11" t="s">
@@ -2795,7 +2795,7 @@
       <c r="K12" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="2">
         <v>-1</v>
       </c>
       <c r="N12" t="s">
@@ -2842,30 +2842,30 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="N14" s="2" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="N14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
@@ -2876,46 +2876,46 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="N15" s="2" t="s">
+      <c r="L15" s="5"/>
+      <c r="N15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2" t="s">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2" t="s">
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2" t="s">
+      <c r="S15" s="5"/>
+      <c r="T15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U15" s="2"/>
+      <c r="U15" s="5"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
@@ -2947,19 +2947,19 @@
       <c r="G16">
         <v>13.2</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K16" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="2">
         <v>-1</v>
       </c>
       <c r="N16" t="s">
@@ -3009,19 +3009,19 @@
       <c r="G17">
         <v>12</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K17" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="2">
         <v>-1</v>
       </c>
       <c r="N17" t="s">
@@ -3071,19 +3071,19 @@
       <c r="G18">
         <v>10.5</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K18" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="2">
         <v>-1</v>
       </c>
       <c r="N18" t="s">
@@ -3133,19 +3133,19 @@
       <c r="G19">
         <v>10.1</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K19" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="2">
         <v>-1</v>
       </c>
       <c r="N19" t="s">
@@ -3195,19 +3195,19 @@
       <c r="G20">
         <v>8.68</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K20" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="2">
         <v>-1</v>
       </c>
       <c r="N20" t="s">
@@ -3257,19 +3257,19 @@
       <c r="G21">
         <v>8.2899999999999991</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K21" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="2">
         <v>-1</v>
       </c>
       <c r="N21" t="s">
@@ -3319,19 +3319,19 @@
       <c r="G22">
         <v>7.75</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K22" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="2">
         <v>-1</v>
       </c>
       <c r="N22" t="s">
@@ -3381,19 +3381,19 @@
       <c r="G23">
         <v>6.83</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K23" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="2">
         <v>-1</v>
       </c>
       <c r="N23" t="s">
@@ -3443,19 +3443,19 @@
       <c r="G24">
         <v>7.08</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K24" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="2">
         <v>-1</v>
       </c>
       <c r="N24" t="s">
@@ -3505,19 +3505,19 @@
       <c r="G25">
         <v>7.03</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K25" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="2">
         <v>-1</v>
       </c>
       <c r="N25" t="s">
@@ -3546,71 +3546,79 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="F30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="F31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="F32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="L32" s="2"/>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="F33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="L33" s="2"/>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="L34" s="5"/>
+      <c r="F34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="L34" s="2"/>
     </row>
     <row r="35" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="F35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="L36" s="5"/>
+      <c r="F36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="L37" s="5"/>
+      <c r="F37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="L38" s="5"/>
+      <c r="F38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="L38" s="2"/>
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="L39" s="5"/>
+      <c r="F39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="L39" s="2"/>
     </row>
     <row r="40" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="L40" s="5"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="41" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="L41" s="5"/>
+      <c r="L41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="R2:S2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="N1:U1"/>
     <mergeCell ref="N14:U14"/>
@@ -3627,14 +3635,6 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/PlanB/CPU_utilization_Experiment/version2_Experiment_style/Experiment3_result/Fixed_Edge4/Experiment3_FixedEdge4_Iperf.xlsx
+++ b/PlanB/CPU_utilization_Experiment/version2_Experiment_style/Experiment3_result/Fixed_Edge4/Experiment3_FixedEdge4_Iperf.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\art01\Desktop\NECTEC_work\CPU_Utilization_NECTEC_git\Privacy_SDN_Edge_IoT\PlanB\CPU_utilization_Experiment\version2_Experiment_style\Experiment3_result\Fixed_Edge4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAF713C-B43F-46B8-8453-2B40D3179655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44919A0-81DB-4B60-BE8D-2A97573B6D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8112" yWindow="864" windowWidth="13788" windowHeight="11088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="40">
   <si>
     <t>Interval</t>
   </si>
@@ -143,6 +152,9 @@
   <si>
     <t>2147338426/2147383337</t>
   </si>
+  <si>
+    <t>SUM bitrate</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -214,23 +226,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -1215,7 +1240,419 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="th-TH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3588567580698599E-2"/>
+          <c:y val="0.15713598680222682"/>
+          <c:w val="0.91323175169645043"/>
+          <c:h val="0.77492381942897059"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SUM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$30:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$30:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B34F-47D1-83F3-E3F3BD48C666}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="561499840"/>
+        <c:axId val="561500256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="561499840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561500256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="561500256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561499840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1771,20 +2208,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>402772</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>94705</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>250372</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>170905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>349432</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>18505</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>273232</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>94705</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1804,6 +2757,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>136069</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>70756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>359226</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="แผนภูมิ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454A6D10-EDF9-4A7C-8F1B-69D5B64CE49D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2077,83 +3066,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
     <col min="11" max="11" width="23.77734375" customWidth="1"/>
     <col min="12" max="12" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="L2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5" t="s">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="5"/>
+      <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2842,30 +3832,30 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="N14" s="5" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="N14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
@@ -2876,46 +3866,46 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="N15" s="5" t="s">
+      <c r="L15" s="3"/>
+      <c r="N15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5" t="s">
+      <c r="O15" s="3"/>
+      <c r="P15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5" t="s">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5" t="s">
+      <c r="S15" s="3"/>
+      <c r="T15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U15" s="5"/>
+      <c r="U15" s="3"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
@@ -3545,72 +4535,194 @@
         <v>7</v>
       </c>
     </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1">
+        <f>G3+G16</f>
+        <v>15</v>
+      </c>
+      <c r="H30" s="6"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ref="G31:G39" si="0">G4+G17</f>
+        <v>15.35</v>
+      </c>
+      <c r="H31" s="6"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="E32" s="1">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>15.030000000000001</v>
+      </c>
+      <c r="H32" s="6"/>
       <c r="J32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F33" s="2"/>
-      <c r="H33" s="2"/>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E33" s="1">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>15.93</v>
+      </c>
+      <c r="H33" s="6"/>
       <c r="J33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F34" s="2"/>
-      <c r="H34" s="2"/>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>15.04</v>
+      </c>
+      <c r="H34" s="6"/>
       <c r="J34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F35" s="2"/>
-      <c r="H35" s="2"/>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E35" s="1">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>15.48</v>
+      </c>
+      <c r="H35" s="6"/>
       <c r="J35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F36" s="2"/>
-      <c r="H36" s="2"/>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E36" s="1">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>15.99</v>
+      </c>
+      <c r="H36" s="6"/>
       <c r="J36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F37" s="2"/>
-      <c r="H37" s="2"/>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E37" s="1">
+        <v>16</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>14.56</v>
+      </c>
+      <c r="H37" s="6"/>
       <c r="J37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F38" s="2"/>
-      <c r="H38" s="2"/>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E38" s="1">
+        <v>18</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>15.12</v>
+      </c>
+      <c r="H38" s="6"/>
       <c r="J38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F39" s="2"/>
-      <c r="H39" s="2"/>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E39" s="1">
+        <v>20</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H39" s="6"/>
       <c r="J39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E40" s="7">
+        <v>22</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E41" s="7">
+        <v>24</v>
+      </c>
+      <c r="G41">
+        <v>20</v>
+      </c>
       <c r="L41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="R15:S15"/>
@@ -3627,14 +4739,6 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
